--- a/medicine/Psychotrope/Philip_Morris_Operations_Niš/Philip_Morris_Operations_Niš.xlsx
+++ b/medicine/Psychotrope/Philip_Morris_Operations_Niš/Philip_Morris_Operations_Niš.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philip_Morris_Operations_Ni%C5%A1</t>
+          <t>Philip_Morris_Operations_Niš</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Philip Morris Operations Niš (code BELEX : DINN) est une entreprise serbe qui a son siège social à Niš. Elle travaille dans l'industrie du tabac.
-Philip Morris Operations Niš portait autrefois le nom de « DIN fabrika duvana Niš ». Elle fait partie du groupe Philip Morris International[4].
+Philip Morris Operations Niš portait autrefois le nom de « DIN fabrika duvana Niš ». Elle fait partie du groupe Philip Morris International.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philip_Morris_Operations_Ni%C5%A1</t>
+          <t>Philip_Morris_Operations_Niš</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'usine de tabac de Niš, DIN fabrika duvana a.d. Niš, a été fondée en 1889 et ses bâtiments installés sur le territoire de l'actuelle municipalité de Crveni krst. En 1995, elle a été complétée par un institut de recherche scientifique, destiné à sélectionner les meilleurs tabacs et à créer de nouveaux produits. En octobre 2003, à la suite de sa privatisation, l'usine a été rachetée par la firme Philip Morris qui y a investi 665 millions d'euros[4].
-En 2006, DIN se situait à la 1re place dans la liste des 100 entreprises les plus rentables de Serbie ; elle réalisait un profit net de 61 millions d'euros[5].
-DIN fabrika duvana a été admise au libre marché de la Bourse de Belgrade le 4 février 2004 et au marché non réglementé le 14 août 2007[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usine de tabac de Niš, DIN fabrika duvana a.d. Niš, a été fondée en 1889 et ses bâtiments installés sur le territoire de l'actuelle municipalité de Crveni krst. En 1995, elle a été complétée par un institut de recherche scientifique, destiné à sélectionner les meilleurs tabacs et à créer de nouveaux produits. En octobre 2003, à la suite de sa privatisation, l'usine a été rachetée par la firme Philip Morris qui y a investi 665 millions d'euros.
+En 2006, DIN se situait à la 1re place dans la liste des 100 entreprises les plus rentables de Serbie ; elle réalisait un profit net de 61 millions d'euros.
+DIN fabrika duvana a été admise au libre marché de la Bourse de Belgrade le 4 février 2004 et au marché non réglementé le 14 août 2007.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philip_Morris_Operations_Ni%C5%A1</t>
+          <t>Philip_Morris_Operations_Niš</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Morris Operations Niš, qui travaille dans l'industrie du tabac, opère à travers 14 filiales situées en Serbie.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Philip_Morris_Operations_Ni%C5%A1</t>
+          <t>Philip_Morris_Operations_Niš</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Données boursières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 24 juin 2013, l'action de Philip Morris Operations Niš valait 7 000 RSD (61,09 EUR)[1]. Elle a connu son cours le plus élevé, soit 7 408 RSD (64,65 EUR), le 15 mai 2006 et son cours le plus bas, soit 5 811 RSD (50,74 EUR), le 18 décembre 2003[1].
-Le capital de Philip Morris Operations Niš est détenu à hauteur de 99,77 % par des entités juridiques, dont 83,62 % par Philip Morris HH BV et 16,15 % par l'Akcionarski fond Beograd[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24 juin 2013, l'action de Philip Morris Operations Niš valait 7 000 RSD (61,09 EUR). Elle a connu son cours le plus élevé, soit 7 408 RSD (64,65 EUR), le 15 mai 2006 et son cours le plus bas, soit 5 811 RSD (50,74 EUR), le 18 décembre 2003.
+Le capital de Philip Morris Operations Niš est détenu à hauteur de 99,77 % par des entités juridiques, dont 83,62 % par Philip Morris HH BV et 16,15 % par l'Akcionarski fond Beograd.
 </t>
         </is>
       </c>
